--- a/static/excel-files/atlas-techniques.xlsx
+++ b/static/excel-files/atlas-techniques.xlsx
@@ -289,250 +289,250 @@
     <t>AML.T0043.000</t>
   </si>
   <si>
-    <t>attack-pattern--98c59f3e-2e5e-41e1-b450-e34ab1627268</t>
-  </si>
-  <si>
-    <t>attack-pattern--b41c38e9-80ca-421e-85c3-064440e12834</t>
-  </si>
-  <si>
-    <t>attack-pattern--c5573b25-a257-43f9-912a-26e3cccb0c33</t>
-  </si>
-  <si>
-    <t>attack-pattern--60a9f8e3-50fa-4dfd-8cc6-1598ce48abe3</t>
-  </si>
-  <si>
-    <t>attack-pattern--70cf5726-5a5b-4114-8e54-991c17803422</t>
-  </si>
-  <si>
-    <t>attack-pattern--ccf956b4-329e-4de8-8ba2-e784d152e0cb</t>
-  </si>
-  <si>
-    <t>attack-pattern--79cdc11c-2ca9-4a6a-96a0-18bd84943086</t>
-  </si>
-  <si>
-    <t>attack-pattern--a109f272-a57b-4c85-896d-0429af301e21</t>
-  </si>
-  <si>
-    <t>attack-pattern--ac7bb2f4-0eef-4d42-b2ee-99810c855123</t>
-  </si>
-  <si>
-    <t>attack-pattern--4c9375f7-5d39-4da5-beaa-edc8c143362f</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba5645e5-d1ab-4f1f-8b82-cb0792543fa8</t>
-  </si>
-  <si>
-    <t>attack-pattern--8f7394cf-d0e4-4187-85c7-d278f77a9a09</t>
-  </si>
-  <si>
-    <t>attack-pattern--12887d43-f8b6-4191-adab-d1728687f951</t>
-  </si>
-  <si>
-    <t>attack-pattern--666f4d33-1a62-4ad7-9bf9-6387cd3f1fd7</t>
-  </si>
-  <si>
-    <t>attack-pattern--512fc1dc-d52b-483d-8bac-4f7034b9e407</t>
-  </si>
-  <si>
-    <t>attack-pattern--1f1b53cf-c34f-48d2-b9f2-32074392e4a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a7f4fc2-272b-4f86-b137-70fa3e239f58</t>
-  </si>
-  <si>
-    <t>attack-pattern--1cc7f877-cb60-419a-bd1e-32b704b534d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--b386c5b6-dbc8-429f-a771-c712e3f1227b</t>
-  </si>
-  <si>
-    <t>attack-pattern--9dc349e9-745e-4bb0-9f95-9c9c598045ac</t>
-  </si>
-  <si>
-    <t>attack-pattern--529fac49-5f88-4a3c-829f-eb50cb90bcf1</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a115a02-2b88-4a3e-9212-a39dc086320b</t>
-  </si>
-  <si>
-    <t>attack-pattern--65c5e3b8-9296-46a2-ae7d-1b68a79cbe54</t>
-  </si>
-  <si>
-    <t>attack-pattern--8bcf7648-2683-421d-b623-bc539de59cb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--f1e017cd-d02c-4e33-a880-9e39c1e47621</t>
-  </si>
-  <si>
-    <t>attack-pattern--bb747632-d988-45ff-9cb3-97d827b4d9db</t>
-  </si>
-  <si>
-    <t>attack-pattern--481486ed-846c-43ce-931b-86b8a18556b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b829988-8bdb-4c4e-a4dd-500a3d3fd3e4</t>
-  </si>
-  <si>
-    <t>attack-pattern--81da9310-0555-4f71-9840-40e3799c85da</t>
-  </si>
-  <si>
-    <t>attack-pattern--0a648aab-7809-48b4-a505-cba29fa14c0c</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5d1fd4f-861f-43e0-b1ca-ee8a3b47f7e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--b8373cee-1dfb-4e37-8ea5-8d012b276ba7</t>
-  </si>
-  <si>
-    <t>attack-pattern--afcd723a-e5ff-4c09-8f72-fe16f7345af7</t>
-  </si>
-  <si>
-    <t>attack-pattern--c2f30865-5e3b-4fee-a415-94909ed31156</t>
-  </si>
-  <si>
-    <t>attack-pattern--eeb15ef7-70f9-45b1-8ce9-07d20ee9258a</t>
-  </si>
-  <si>
-    <t>attack-pattern--83c5ba15-5312-4c7d-bbb4-f9c4f2c6ffca</t>
-  </si>
-  <si>
-    <t>attack-pattern--68034561-a079-4052-9b64-427bfcff76ff</t>
-  </si>
-  <si>
-    <t>attack-pattern--4b86b97e-648e-44f9-8d2c-5c5557062f3e</t>
-  </si>
-  <si>
-    <t>attack-pattern--569d6edd-0140-4ab2-97b1-3635d62f40cc</t>
-  </si>
-  <si>
-    <t>attack-pattern--40792e08-d972-4af8-8eee-d6d6dc96d106</t>
-  </si>
-  <si>
-    <t>attack-pattern--3dc95dea-7507-447f-8ab5-e10beadaf606</t>
-  </si>
-  <si>
-    <t>attack-pattern--151214d2-2f04-474a-90a7-d0645dee2cbe</t>
-  </si>
-  <si>
-    <t>attack-pattern--3c248560-8041-48cc-8948-2c6815afe236</t>
-  </si>
-  <si>
-    <t>attack-pattern--9800daea-8512-48fe-a8a6-addf4e4472c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--1511d7eb-cf6f-470f-b7fe-e001be2c2935</t>
-  </si>
-  <si>
-    <t>attack-pattern--b67fc223-fecf-4ee6-9de7-9392d9f04060</t>
-  </si>
-  <si>
-    <t>attack-pattern--99441fbc-17c8-47dc-8bdc-1053952b4cbb</t>
-  </si>
-  <si>
-    <t>attack-pattern--0d002b6b-d006-4aab-a7f9-fa69f4a1e675</t>
-  </si>
-  <si>
-    <t>attack-pattern--a5d2ba8c-0319-4c14-9831-f5b708c8863d</t>
-  </si>
-  <si>
-    <t>attack-pattern--4627c4e6-fb06-4bfa-add5-dc46e0043aff</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6697dbf-3e3f-41ce-a212-361d1c0ca0e9</t>
-  </si>
-  <si>
-    <t>attack-pattern--0bab6cda-eb77-46b8-adfc-4274d0513c8f</t>
-  </si>
-  <si>
-    <t>attack-pattern--5f80868c-5996-4730-9326-f1c8a8630c5e</t>
-  </si>
-  <si>
-    <t>attack-pattern--2792e1f0-3132-4876-878d-a900b8a40e7d</t>
-  </si>
-  <si>
-    <t>attack-pattern--292ebe33-addc-4fe7-b2a9-4856293c4c96</t>
-  </si>
-  <si>
-    <t>attack-pattern--41dba0ab-b7bf-40b6-ac47-61dbfa16a53d</t>
-  </si>
-  <si>
-    <t>attack-pattern--b74030e3-0ee5-4c50-80ad-2393b3e1b161</t>
-  </si>
-  <si>
-    <t>attack-pattern--e0958449-a880-4410-bbb1-fa102030a883</t>
-  </si>
-  <si>
-    <t>attack-pattern--822cb1e2-f35f-4b35-a650-59b7770d4abc</t>
-  </si>
-  <si>
-    <t>attack-pattern--6945b742-f1d5-4a83-ba4a-d0e0de6620c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--cb1bd497-e068-4b72-85af-626ab2f80e1d</t>
-  </si>
-  <si>
-    <t>attack-pattern--0799f2f2-1038-4391-ba1f-4117595db45a</t>
-  </si>
-  <si>
-    <t>attack-pattern--411ffbe6-e20e-468d-bdf6-01e9d549ff6a</t>
-  </si>
-  <si>
-    <t>attack-pattern--f662d072-38ee-4399-bdbb-b2f5ccfed446</t>
-  </si>
-  <si>
-    <t>attack-pattern--d93b2175-90a8-4250-821f-dcc3bbbe194c</t>
-  </si>
-  <si>
-    <t>attack-pattern--4f8b3c84-acb4-42aa-b059-103ab52498ad</t>
-  </si>
-  <si>
-    <t>attack-pattern--229ead06-da1e-443c-8ff1-e57a3ae0eb61</t>
-  </si>
-  <si>
-    <t>attack-pattern--2de27d58-3e31-42fc-a52a-5c350ce5639f</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b1eeb78-bf3e-4d30-a376-d3f6ba67bd7c</t>
-  </si>
-  <si>
-    <t>attack-pattern--3247b43f-1888-4158-b3da-5b7c7dfaa4e2</t>
-  </si>
-  <si>
-    <t>attack-pattern--ed847783-c732-4b52-b72e-e823a870c09c</t>
-  </si>
-  <si>
-    <t>attack-pattern--0aac198b-3d5e-40ff-9460-290035d67717</t>
-  </si>
-  <si>
-    <t>attack-pattern--a40d6631-9042-4ba2-8a5b-5bd162ffb4bc</t>
-  </si>
-  <si>
-    <t>attack-pattern--042e340a-ea50-46f7-a2bc-70bbad949313</t>
-  </si>
-  <si>
-    <t>attack-pattern--d52b913b-808c-461d-8969-94cd5c9fe07b</t>
-  </si>
-  <si>
-    <t>attack-pattern--dd3e5970-2a1c-44b7-a94b-566a2a09dfb5</t>
-  </si>
-  <si>
-    <t>attack-pattern--7e8bff1e-af7d-4ace-829c-2b561b47e49d</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e8e4108-beb6-479a-a617-323d425e5d03</t>
-  </si>
-  <si>
-    <t>attack-pattern--a1e68129-6d82-4091-9324-bbf148a2228b</t>
-  </si>
-  <si>
-    <t>attack-pattern--dc5ed9cb-7484-4f6c-9434-f420f17b13a8</t>
-  </si>
-  <si>
-    <t>attack-pattern--466f70e5-5b63-42ae-8dab-f54e0a928d55</t>
-  </si>
-  <si>
-    <t>attack-pattern--51c95da5-d7f1-4b57-9229-869b80305b37</t>
+    <t>attack-pattern--4fb3f968-42a6-43da-ae93-5f165afa82e3</t>
+  </si>
+  <si>
+    <t>attack-pattern--99ee109d-c2d0-48cc-9960-d1d2a9ecd0ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--68b13c6b-c45d-4864-8186-189c77eaeb4d</t>
+  </si>
+  <si>
+    <t>attack-pattern--4d881f79-6a16-4e84-a795-4f3914045e67</t>
+  </si>
+  <si>
+    <t>attack-pattern--b6a3ddcc-60d7-4ae8-b702-eca52e3ace5d</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4242e1a-203a-4b26-8a7f-967458b3751a</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a328de1-1327-4ed3-98c0-0a2e9da558c0</t>
+  </si>
+  <si>
+    <t>attack-pattern--0dc3c131-1524-486e-a653-52240e95a22a</t>
+  </si>
+  <si>
+    <t>attack-pattern--e641274e-cac2-49c4-800f-abd0c0d825cd</t>
+  </si>
+  <si>
+    <t>attack-pattern--047c1235-9c18-4425-8494-6f8a75feabce</t>
+  </si>
+  <si>
+    <t>attack-pattern--35bd4e6e-9056-4115-9395-81735cfd1761</t>
+  </si>
+  <si>
+    <t>attack-pattern--d93718ee-12c5-4f76-9845-1bb14f948513</t>
+  </si>
+  <si>
+    <t>attack-pattern--36a77758-5a44-48e9-9545-14bd0a54756d</t>
+  </si>
+  <si>
+    <t>attack-pattern--acebf60b-3f22-4c75-a74f-4da8788fae17</t>
+  </si>
+  <si>
+    <t>attack-pattern--ff90c91c-2f51-48db-bc3c-e1d1ebf093f3</t>
+  </si>
+  <si>
+    <t>attack-pattern--2e3499bf-169b-4b77-ae04-c689e53a9895</t>
+  </si>
+  <si>
+    <t>attack-pattern--0ba8d50c-bbcc-4b6b-ac2d-0d78fdae0422</t>
+  </si>
+  <si>
+    <t>attack-pattern--50d26291-d3ac-451f-b051-3159ba12f39e</t>
+  </si>
+  <si>
+    <t>attack-pattern--05c6f7a3-1f8a-443d-a3d7-b4d54ab28e8c</t>
+  </si>
+  <si>
+    <t>attack-pattern--87f481a5-f4f5-4aa8-b19a-854634bdf08f</t>
+  </si>
+  <si>
+    <t>attack-pattern--61527318-c59b-4097-840c-adf9961bad42</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3e09f44-3ff9-4db9-bf26-6a42bbcfbbb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5f36bcf-f003-4bde-bd38-873ecb1160c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--501caefa-6ffd-496b-be90-c644e9dc8037</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3c55a49-99c1-4613-994a-9948228ef0c8</t>
+  </si>
+  <si>
+    <t>attack-pattern--dbd25a74-6024-4e30-9ba2-20428a447b70</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0205c5e-9527-4020-8927-26c855a45008</t>
+  </si>
+  <si>
+    <t>attack-pattern--37d808a2-ca53-4b8f-a5c9-1dfc4bc59d6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--5c4401a9-b406-4cbd-9c2d-af905a927c23</t>
+  </si>
+  <si>
+    <t>attack-pattern--22fd9008-0257-448b-a013-e253ece129e7</t>
+  </si>
+  <si>
+    <t>attack-pattern--26e0f122-c1ef-4d64-b20a-5cd81b1a1979</t>
+  </si>
+  <si>
+    <t>attack-pattern--ef5867e1-c9cc-4e52-8044-80053e308042</t>
+  </si>
+  <si>
+    <t>attack-pattern--8e2247ab-ddb9-4105-9bca-7dc756987394</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e33fd0b-b624-4aa9-9c87-69acaa29437d</t>
+  </si>
+  <si>
+    <t>attack-pattern--7adc32b4-93f3-441f-9ad4-08f8643d450e</t>
+  </si>
+  <si>
+    <t>attack-pattern--1b7c868f-f99c-4b9c-98c2-fe8608cc39c4</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c25c07a-0800-4635-ac9c-fa3fbd0b571d</t>
+  </si>
+  <si>
+    <t>attack-pattern--36d540cd-e31b-457e-8ac0-f34eec004a7a</t>
+  </si>
+  <si>
+    <t>attack-pattern--4af77ce4-5699-4bc0-85e5-9a7b115a9fda</t>
+  </si>
+  <si>
+    <t>attack-pattern--8eb6f82a-6c90-44a8-bd8d-a0ba632858a5</t>
+  </si>
+  <si>
+    <t>attack-pattern--d59358df-a685-4a5d-b65b-2f81bd91bc02</t>
+  </si>
+  <si>
+    <t>attack-pattern--80a3250a-c57b-445e-a668-c9bb8bf1b136</t>
+  </si>
+  <si>
+    <t>attack-pattern--657cba2d-a94b-46ed-96c6-b0ff825e79d6</t>
+  </si>
+  <si>
+    <t>attack-pattern--e04885b8-82ed-464c-9789-fafb7fdbbe30</t>
+  </si>
+  <si>
+    <t>attack-pattern--db789568-054a-498b-b585-56e8d5ce88f9</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0da3f30-9270-418f-834e-7c79bed1065e</t>
+  </si>
+  <si>
+    <t>attack-pattern--ccd395a9-69f3-4f5e-a819-99f98bcc1c4b</t>
+  </si>
+  <si>
+    <t>attack-pattern--69268719-393f-41d3-801e-18d607474b01</t>
+  </si>
+  <si>
+    <t>attack-pattern--32287d8a-ac22-4d9f-a4ba-a55566fa8b36</t>
+  </si>
+  <si>
+    <t>attack-pattern--2308375d-743a-49ea-9fba-509a14e4a5e2</t>
+  </si>
+  <si>
+    <t>attack-pattern--21a73c23-60b5-46bc-b480-afa101fbac5f</t>
+  </si>
+  <si>
+    <t>attack-pattern--7344ac61-c0ef-484b-acb3-8ae385fcddb8</t>
+  </si>
+  <si>
+    <t>attack-pattern--4e479550-b51e-4399-bdda-4895d98f99fd</t>
+  </si>
+  <si>
+    <t>attack-pattern--7f8b61c0-e4a2-4a21-851a-7f8041a929c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--2fb39d9e-2363-4672-a3c8-4c6c63c6b94c</t>
+  </si>
+  <si>
+    <t>attack-pattern--451cf23a-2346-4c3c-aa15-a629af8bb982</t>
+  </si>
+  <si>
+    <t>attack-pattern--aab01876-c6ba-4fac-a23a-25bc508e6a5c</t>
+  </si>
+  <si>
+    <t>attack-pattern--12b09c3e-46a9-4647-9df3-68cfde54ba21</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d8044ed-6082-44d8-bc62-559f9296b580</t>
+  </si>
+  <si>
+    <t>attack-pattern--2f154be7-a9fa-4c5c-b446-5c4ca11049d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--4719e4eb-78c9-4292-8059-a88886b65dfe</t>
+  </si>
+  <si>
+    <t>attack-pattern--481a4781-a4a9-473f-9ace-fc16e498bc27</t>
+  </si>
+  <si>
+    <t>attack-pattern--e2088636-a550-43d4-930c-603a33a024e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--c46f18fa-cad2-4d24-8e9a-aa38bb49ed0d</t>
+  </si>
+  <si>
+    <t>attack-pattern--6d5ae8f7-0011-49bb-be21-6875ab3e0826</t>
+  </si>
+  <si>
+    <t>attack-pattern--689f398a-d130-4b8e-b359-5753973d8a8e</t>
+  </si>
+  <si>
+    <t>attack-pattern--92c88822-861d-4b04-b68d-56cd34ba35e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--78b26a25-f4e6-48b4-9ce9-aab8bce5db7e</t>
+  </si>
+  <si>
+    <t>attack-pattern--02cec77c-40b1-418f-920b-a3f3217b669d</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7dfb4dd-5325-4485-9b63-d57a63bd62d5</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d802c02-cc2a-4f12-8ec5-2cfd47fa5592</t>
+  </si>
+  <si>
+    <t>attack-pattern--016a388c-d340-44a8-ab69-26a115e5f9a4</t>
+  </si>
+  <si>
+    <t>attack-pattern--91582fc7-5103-4d51-b520-1863eac391e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--7b189c01-b058-4340-8500-e90b3220354a</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d0968cd-f067-4b8b-a451-df6c521d3dab</t>
+  </si>
+  <si>
+    <t>attack-pattern--f81f0a08-3399-4006-9175-71a7dca2a917</t>
+  </si>
+  <si>
+    <t>attack-pattern--ea45586f-e473-43ca-a2b5-44a424eee5e6</t>
+  </si>
+  <si>
+    <t>attack-pattern--e6771085-d926-419c-831c-64cca5258442</t>
+  </si>
+  <si>
+    <t>attack-pattern--02efc53c-0695-44f1-8951-b3644058bb60</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d1fb699-0cd0-420f-82ff-0f6947a10ecc</t>
+  </si>
+  <si>
+    <t>attack-pattern--9aedbc21-6bff-4826-a8a2-f8a414478fc0</t>
+  </si>
+  <si>
+    <t>attack-pattern--a562f5cf-fa56-42cb-8bca-3f39c9c8277e</t>
   </si>
   <si>
     <t>Acquire Infrastructure</t>
@@ -830,11 +830,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy ML Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) models they have full access to and are representative of the target model.
+    <t xml:space="preserve">In Black-Box Transfer attacks, the adversary uses one or more proxy models (trained via [Create Proxy ML Model](/techniques/AML.T0005) or [Train Proxy via Replication](/techniques/AML.T0005.001)) they have full access to and are representative of the target model.
 The adversary uses [White-Box Optimization](/techniques/AML.T0043.000) on the proxy models to generate adversarial examples.
 If the set of proxy models are close enough to the target model, the adversarial example should generalize from one to another.
 This means that an attack that works for the proxy models will likely then work for the target model.
-If the adversary has [ML Model Inference API Access](/techniques/AML.T0040), they may use this [Verify Attack](/techniques/AML.T0042) that the attack is working and incorporate that information into their training process.
+If the adversary has [ML Model Inference API Access](/techniques/AML.T0040), they may use [Verify Attack](/techniques/AML.T0042) to confirm the attack is working and incorporate that information into their training process.
 </t>
   </si>
   <si>
@@ -1295,7 +1295,7 @@
   </si>
   <si>
     <t xml:space="preserve">In White-Box Optimization, the adversary has full access to the target model and optimizes the adversarial example directly.
-Adversarial examples trained in this manor are most effective against the target model.
+Adversarial examples trained in this manner are most effective against the target model.
 </t>
   </si>
   <si>
@@ -1545,7 +1545,7 @@
     <t>https://atlas.mitre.org/techniques/AML.T0043.000</t>
   </si>
   <si>
-    <t>31 October 2023</t>
+    <t>12 January 2024</t>
   </si>
   <si>
     <t>Resource Development</t>
